--- a/Data/csa_production_flw.xlsx
+++ b/Data/csa_production_flw.xlsx
@@ -1,72 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20393"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\egli\Nextcloud\Cloud\FoodSystem\Git\LeVe_Solawi\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F8952C-4BEC-4DCD-80B7-7016D1873D33}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E44402EE-7E9E-43BE-AB77-F1D8E5520023}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13130" windowHeight="6110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="35">
-  <si>
-    <t>Solawi</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="29">
   <si>
     <t>Kultur</t>
   </si>
   <si>
-    <t>Ertrag_kg</t>
-  </si>
-  <si>
-    <t>Ertrag_kg_geerntet</t>
-  </si>
-  <si>
-    <t>Anbauflaeche</t>
-  </si>
-  <si>
-    <t>Ertrag_kg_qm</t>
-  </si>
-  <si>
-    <t>Ertrag_kg_geerntet_qm</t>
-  </si>
-  <si>
-    <t>Nachverwertung_kg_lieferbar</t>
-  </si>
-  <si>
-    <t>Nachverwertung_kg_essbar</t>
-  </si>
-  <si>
-    <t>Nachverwertung_kg_nichtEssbar</t>
-  </si>
-  <si>
-    <t>Nachverwertung_kg_total</t>
-  </si>
-  <si>
-    <t>Nachverwertung_ratio_lieferbar</t>
-  </si>
-  <si>
-    <t>Nachverwertung_ratio_essbar</t>
-  </si>
-  <si>
-    <t>Nachverwertung_ratio_nichtEssbar</t>
-  </si>
-  <si>
-    <t>Nachverwertung_ratio_total</t>
-  </si>
-  <si>
     <t>Brokkoli</t>
   </si>
   <si>
@@ -125,6 +83,30 @@
   </si>
   <si>
     <t>csa4</t>
+  </si>
+  <si>
+    <t>CSA</t>
+  </si>
+  <si>
+    <t>HarvestedArea_m2</t>
+  </si>
+  <si>
+    <t>Yield_kg_m2</t>
+  </si>
+  <si>
+    <t>Production_kg</t>
+  </si>
+  <si>
+    <t>Production_harvested_kg</t>
+  </si>
+  <si>
+    <t>Yield_harvested_kg_m2</t>
+  </si>
+  <si>
+    <t>Loss_production_total_kg</t>
+  </si>
+  <si>
+    <t>Ratio_production_total</t>
   </si>
 </sst>
 </file>
@@ -458,67 +440,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O64"/>
+  <dimension ref="A1:I64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
       </c>
       <c r="C2">
         <v>60.2</v>
@@ -536,36 +500,18 @@
         <v>0.26468519169891003</v>
       </c>
       <c r="H2">
-        <v>5.2726177777777696</v>
+        <v>29.180376767676801</v>
       </c>
       <c r="I2">
-        <v>15.659032323232299</v>
-      </c>
-      <c r="J2">
-        <v>8.2487266666666699</v>
-      </c>
-      <c r="K2">
-        <v>29.180376767676801</v>
-      </c>
-      <c r="L2">
-        <v>5.89907759225798E-2</v>
-      </c>
-      <c r="M2">
-        <v>0.17519541637125</v>
-      </c>
-      <c r="N2">
-        <v>9.22878932151662E-2</v>
-      </c>
-      <c r="O2">
         <v>0.32647408550899598</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>182.54</v>
@@ -583,36 +529,18 @@
         <v>0.56339506172839504</v>
       </c>
       <c r="H3">
-        <v>13.8857142857143</v>
+        <v>34.8782142857143</v>
       </c>
       <c r="I3">
-        <v>19.542857142857098</v>
-      </c>
-      <c r="J3">
-        <v>1.4496428571428599</v>
-      </c>
-      <c r="K3">
-        <v>34.8782142857143</v>
-      </c>
-      <c r="L3">
-        <v>6.3866379968822398E-2</v>
-      </c>
-      <c r="M3">
-        <v>8.9886016252416795E-2</v>
-      </c>
-      <c r="N3">
-        <v>6.6675317976710403E-3</v>
-      </c>
-      <c r="O3">
         <v>0.16041992801891</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <v>218.650383333333</v>
@@ -630,36 +558,18 @@
         <v>0.86766025132275204</v>
       </c>
       <c r="H4">
-        <v>10.192500000000001</v>
+        <v>201.2695754662</v>
       </c>
       <c r="I4">
-        <v>28.667017132867102</v>
-      </c>
-      <c r="J4">
-        <v>162.41005833333301</v>
-      </c>
-      <c r="K4">
-        <v>201.2695754662</v>
-      </c>
-      <c r="L4">
-        <v>2.42724828539665E-2</v>
-      </c>
-      <c r="M4">
-        <v>6.8267812787037599E-2</v>
-      </c>
-      <c r="N4">
-        <v>0.38676432241427799</v>
-      </c>
-      <c r="O4">
         <v>0.47930461805528202</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C5">
         <v>1429.39</v>
@@ -677,36 +587,18 @@
         <v>0.68114857142857099</v>
       </c>
       <c r="H5">
-        <v>66.622299239508905</v>
+        <v>102.8511253833</v>
       </c>
       <c r="I5">
-        <v>9.3335808823529405</v>
-      </c>
-      <c r="J5">
-        <v>26.8952452614379</v>
-      </c>
-      <c r="K5">
-        <v>102.8511253833</v>
-      </c>
-      <c r="L5">
-        <v>4.3480297021033697E-2</v>
-      </c>
-      <c r="M5">
-        <v>6.0914569696189896E-3</v>
-      </c>
-      <c r="N5">
-        <v>1.7552880428470301E-2</v>
-      </c>
-      <c r="O5">
         <v>6.71246344191231E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="C6">
         <v>786.12470833333305</v>
@@ -724,36 +616,18 @@
         <v>4.6257250484496097</v>
       </c>
       <c r="H6">
-        <v>6.4870000000000001</v>
+        <v>244.90110364464701</v>
       </c>
       <c r="I6">
-        <v>52.5608083712984</v>
-      </c>
-      <c r="J6">
-        <v>185.853295273349</v>
-      </c>
-      <c r="K6">
-        <v>244.90110364464701</v>
-      </c>
-      <c r="L6">
-        <v>6.2917920430672399E-3</v>
-      </c>
-      <c r="M6">
-        <v>5.0979139184170998E-2</v>
-      </c>
-      <c r="N6">
-        <v>0.18026056488032699</v>
-      </c>
-      <c r="O6">
         <v>0.23753149610756499</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C7">
         <v>1023.5931491475</v>
@@ -771,36 +645,18 @@
         <v>2.3528172604240898</v>
       </c>
       <c r="H7">
-        <v>6.7754574468085096</v>
+        <v>126.596889777435</v>
       </c>
       <c r="I7">
-        <v>22.513396559233598</v>
-      </c>
-      <c r="J7">
-        <v>97.308035771392795</v>
-      </c>
-      <c r="K7">
-        <v>126.596889777435</v>
-      </c>
-      <c r="L7">
-        <v>5.8907286774465698E-3</v>
-      </c>
-      <c r="M7">
-        <v>1.9573632006304399E-2</v>
-      </c>
-      <c r="N7">
-        <v>8.4601702743265797E-2</v>
-      </c>
-      <c r="O7">
         <v>0.110066063427017</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C8">
         <v>868.33150694444396</v>
@@ -818,36 +674,18 @@
         <v>2.0727226355820099</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>58.53</v>
       </c>
       <c r="I8">
-        <v>38.106000000000002</v>
-      </c>
-      <c r="J8">
-        <v>20.423999999999999</v>
-      </c>
-      <c r="K8">
-        <v>58.53</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>4.11129383564788E-2</v>
-      </c>
-      <c r="N8">
-        <v>2.2035654568643401E-2</v>
-      </c>
-      <c r="O8">
         <v>6.3148592925122204E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C9">
         <v>578.46519899999998</v>
@@ -865,36 +703,18 @@
         <v>2.0085597187499999</v>
       </c>
       <c r="H9">
-        <v>0.69599999999999995</v>
+        <v>87.427700000000002</v>
       </c>
       <c r="I9">
-        <v>14.0307</v>
-      </c>
-      <c r="J9">
-        <v>72.700999999999993</v>
-      </c>
-      <c r="K9">
-        <v>87.427700000000002</v>
-      </c>
-      <c r="L9">
-        <v>1.0452131281850499E-3</v>
-      </c>
-      <c r="M9">
-        <v>2.1070505513830402E-2</v>
-      </c>
-      <c r="N9">
-        <v>0.10917821786232899</v>
-      </c>
-      <c r="O9">
         <v>0.13129393650434501</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C10">
         <v>350.65</v>
@@ -912,42 +732,24 @@
         <v>1.8263020833333301</v>
       </c>
       <c r="H10">
-        <v>36.019200000000097</v>
+        <v>51.615283333333402</v>
       </c>
       <c r="I10">
-        <v>2.5350000000000001</v>
-      </c>
-      <c r="J10">
-        <v>13.061083333333301</v>
-      </c>
-      <c r="K10">
-        <v>51.615283333333402</v>
-      </c>
-      <c r="L10">
-        <v>8.9540911165712195E-2</v>
-      </c>
-      <c r="M10">
-        <v>6.3018115284370598E-3</v>
-      </c>
-      <c r="N10">
-        <v>3.2468830581411097E-2</v>
-      </c>
-      <c r="O10">
         <v>0.12831155327555999</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C11">
         <v>3597.913</v>
       </c>
       <c r="D11">
-        <v>5882.7030000000004</v>
+        <v>3629.8919999999998</v>
       </c>
       <c r="E11">
         <v>849</v>
@@ -956,45 +758,27 @@
         <v>4.2378244994110696</v>
       </c>
       <c r="G11">
-        <v>6.9289787985865701</v>
+        <v>4.2754911660777397</v>
       </c>
       <c r="H11">
-        <v>34.427534242032699</v>
+        <v>134.885036938647</v>
       </c>
       <c r="I11">
-        <v>50.205961029947701</v>
-      </c>
-      <c r="J11">
-        <v>50.251541666666697</v>
-      </c>
-      <c r="K11">
-        <v>134.885036938647</v>
-      </c>
-      <c r="L11">
-        <v>9.2229833763702706E-3</v>
-      </c>
-      <c r="M11">
-        <v>1.34499537701008E-2</v>
-      </c>
-      <c r="N11">
-        <v>1.34621646200498E-2</v>
-      </c>
-      <c r="O11">
         <v>3.6135101766520801E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C12">
         <v>942.923</v>
       </c>
       <c r="D12">
-        <v>2292.9229999999998</v>
+        <v>945.33600000000001</v>
       </c>
       <c r="E12">
         <v>567</v>
@@ -1003,39 +787,21 @@
         <v>1.66300352733686</v>
       </c>
       <c r="G12">
-        <v>4.0439559082892398</v>
+        <v>1.6672592592592601</v>
       </c>
       <c r="H12">
-        <v>0.10100000000000001</v>
+        <v>20.287362731566699</v>
       </c>
       <c r="I12">
-        <v>10.3361669273709</v>
-      </c>
-      <c r="J12">
-        <v>9.8501958041958098</v>
-      </c>
-      <c r="K12">
-        <v>20.287362731566699</v>
-      </c>
-      <c r="L12">
-        <v>1.04857675859689E-4</v>
-      </c>
-      <c r="M12">
-        <v>1.0730954864375201E-2</v>
-      </c>
-      <c r="N12">
-        <v>1.02264221662459E-2</v>
-      </c>
-      <c r="O12">
         <v>2.1062234706480699E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C13">
         <v>1576.25</v>
@@ -1053,36 +819,18 @@
         <v>5.62946428571429</v>
       </c>
       <c r="H13">
-        <v>10.6533333336667</v>
+        <v>72.467260477363396</v>
       </c>
       <c r="I13">
-        <v>1.95</v>
-      </c>
-      <c r="J13">
-        <v>59.863927143696699</v>
-      </c>
-      <c r="K13">
-        <v>72.467260477363396</v>
-      </c>
-      <c r="L13">
-        <v>6.4615890116793799E-3</v>
-      </c>
-      <c r="M13">
-        <v>1.18273766323973E-3</v>
-      </c>
-      <c r="N13">
-        <v>3.63093955396354E-2</v>
-      </c>
-      <c r="O13">
         <v>4.39537222145545E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C14">
         <v>594.80213857142905</v>
@@ -1100,36 +848,18 @@
         <v>2.05390816605617</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>44.381</v>
       </c>
       <c r="I14">
-        <v>20.637499999999999</v>
-      </c>
-      <c r="J14">
-        <v>23.743500000000001</v>
-      </c>
-      <c r="K14">
-        <v>44.381</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>3.2287303520122101E-2</v>
-      </c>
-      <c r="N14">
-        <v>3.7146630702847697E-2</v>
-      </c>
-      <c r="O14">
         <v>6.9433934222969895E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C15">
         <v>242.75754285714299</v>
@@ -1147,36 +877,18 @@
         <v>2.3119765986394598</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>46.367100000000001</v>
       </c>
       <c r="I15">
-        <v>16.957000000000001</v>
-      </c>
-      <c r="J15">
-        <v>29.4101</v>
-      </c>
-      <c r="K15">
-        <v>46.367100000000001</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>5.8649445555488303E-2</v>
-      </c>
-      <c r="N15">
-        <v>0.101721180558558</v>
-      </c>
-      <c r="O15">
         <v>0.16037062611404601</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C16">
         <v>1680.95064166667</v>
@@ -1194,36 +906,18 @@
         <v>7.7821788966049397</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>70.6784557416496</v>
       </c>
       <c r="I16">
-        <v>35.447940149099203</v>
-      </c>
-      <c r="J16">
-        <v>35.230515592550397</v>
-      </c>
-      <c r="K16">
-        <v>70.6784557416496</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>2.0237126799016701E-2</v>
-      </c>
-      <c r="N16">
-        <v>2.0112999746736901E-2</v>
-      </c>
-      <c r="O16">
         <v>4.0350126545753498E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C17">
         <v>88.474500000000006</v>
@@ -1246,31 +940,13 @@
       <c r="I17">
         <v>0</v>
       </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C18">
         <v>4.1070000000000002</v>
@@ -1293,31 +969,13 @@
       <c r="I18">
         <v>0</v>
       </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C19">
         <v>129</v>
@@ -1335,36 +993,18 @@
         <v>1.9111111111111101</v>
       </c>
       <c r="H19">
-        <v>15.476000000000001</v>
+        <v>33.724200000000003</v>
       </c>
       <c r="I19">
-        <v>12.9472</v>
-      </c>
-      <c r="J19">
-        <v>5.3010000000000002</v>
-      </c>
-      <c r="K19">
-        <v>33.724200000000003</v>
-      </c>
-      <c r="L19">
-        <v>9.51057064652953E-2</v>
-      </c>
-      <c r="M19">
-        <v>7.9565301288929399E-2</v>
-      </c>
-      <c r="N19">
-        <v>3.2576592787059301E-2</v>
-      </c>
-      <c r="O19">
         <v>0.20724760054128399</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="C20">
         <v>33.775700000000001</v>
@@ -1382,36 +1022,18 @@
         <v>1.1258566666666701</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>3.37666666666667</v>
       </c>
       <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>3.37666666666667</v>
-      </c>
-      <c r="K20">
-        <v>3.37666666666667</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20">
         <v>9.08869870111461E-2</v>
       </c>
-      <c r="O20">
-        <v>9.08869870111461E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C21">
         <v>302.5</v>
@@ -1429,36 +1051,18 @@
         <v>2.2454074074074102</v>
       </c>
       <c r="H21">
-        <v>1.64</v>
+        <v>3.3494999999999999</v>
       </c>
       <c r="I21">
-        <v>1.1739999999999999</v>
-      </c>
-      <c r="J21">
-        <v>0.53549999999999998</v>
-      </c>
-      <c r="K21">
-        <v>3.3494999999999999</v>
-      </c>
-      <c r="L21">
-        <v>5.3621143732456699E-3</v>
-      </c>
-      <c r="M21">
-        <v>3.8384891915795201E-3</v>
-      </c>
-      <c r="N21">
-        <v>1.75086112614211E-3</v>
-      </c>
-      <c r="O21">
         <v>1.09514646909673E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="C22">
         <v>135.095</v>
@@ -1476,36 +1080,18 @@
         <v>2.2515833333333299</v>
       </c>
       <c r="H22">
-        <v>0.316</v>
+        <v>27.275666666666702</v>
       </c>
       <c r="I22">
-        <v>9.4983333333333295</v>
-      </c>
-      <c r="J22">
-        <v>17.4613333333333</v>
-      </c>
-      <c r="K22">
-        <v>27.275666666666702</v>
-      </c>
-      <c r="L22">
-        <v>1.9461643318169099E-3</v>
-      </c>
-      <c r="M22">
-        <v>5.8497840332408201E-2</v>
-      </c>
-      <c r="N22">
-        <v>0.107539949744617</v>
-      </c>
-      <c r="O22">
         <v>0.16798395440884201</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C23">
         <v>357.94179523809498</v>
@@ -1523,36 +1109,18 @@
         <v>1.7044847392290201</v>
       </c>
       <c r="H23">
-        <v>4.4400000000000004</v>
+        <v>90.282700000000006</v>
       </c>
       <c r="I23">
-        <v>18.032666666666699</v>
-      </c>
-      <c r="J23">
-        <v>67.810033333333294</v>
-      </c>
-      <c r="K23">
-        <v>90.282700000000006</v>
-      </c>
-      <c r="L23">
-        <v>9.9057504602498101E-3</v>
-      </c>
-      <c r="M23">
-        <v>4.0231327957852399E-2</v>
-      </c>
-      <c r="N23">
-        <v>0.15128587137414901</v>
-      </c>
-      <c r="O23">
         <v>0.201422949792251</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B24" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C24">
         <v>1088.06778333333</v>
@@ -1570,36 +1138,18 @@
         <v>5.8292201777777803</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>39.017000000000003</v>
       </c>
       <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>39.017000000000003</v>
-      </c>
-      <c r="K24">
-        <v>39.017000000000003</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="N24">
         <v>3.46176264438669E-2</v>
       </c>
-      <c r="O24">
-        <v>3.46176264438669E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B25" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C25">
         <v>70.318624999999997</v>
@@ -1617,36 +1167,18 @@
         <v>1.56263611111111</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>5.7830000000000004</v>
       </c>
       <c r="I25">
-        <v>0.19350000000000001</v>
-      </c>
-      <c r="J25">
-        <v>5.5895000000000001</v>
-      </c>
-      <c r="K25">
-        <v>5.7830000000000004</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="M25">
-        <v>2.5426526700316802E-3</v>
-      </c>
-      <c r="N25">
-        <v>7.3447840305643899E-2</v>
-      </c>
-      <c r="O25">
         <v>7.5990492975675603E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B26" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C26">
         <v>334.5</v>
@@ -1664,36 +1196,18 @@
         <v>7.43333333333333</v>
       </c>
       <c r="H26">
-        <v>3.5640000000000001</v>
+        <v>35.884999999999998</v>
       </c>
       <c r="I26">
-        <v>9.5579999999999998</v>
-      </c>
-      <c r="J26">
-        <v>22.763000000000002</v>
-      </c>
-      <c r="K26">
-        <v>35.884999999999998</v>
-      </c>
-      <c r="L26">
-        <v>9.6224199144133802E-3</v>
-      </c>
-      <c r="M26">
-        <v>2.5805580679563199E-2</v>
-      </c>
-      <c r="N26">
-        <v>6.1457672421939301E-2</v>
-      </c>
-      <c r="O26">
         <v>9.6885673015915899E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B27" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C27">
         <v>399.46821200332602</v>
@@ -1711,36 +1225,18 @@
         <v>1.9022295809682199</v>
       </c>
       <c r="H27">
-        <v>5.7584999999999997</v>
+        <v>54.199726190277701</v>
       </c>
       <c r="I27">
-        <v>10.5105361636159</v>
-      </c>
-      <c r="J27">
-        <v>37.930690026661701</v>
-      </c>
-      <c r="K27">
-        <v>54.199726190277701</v>
-      </c>
-      <c r="L27">
-        <v>1.2693204688276999E-2</v>
-      </c>
-      <c r="M27">
-        <v>2.3167906036001499E-2</v>
-      </c>
-      <c r="N27">
-        <v>8.3608928102110597E-2</v>
-      </c>
-      <c r="O27">
         <v>0.119470038826389</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C28">
         <v>316.65157141690503</v>
@@ -1758,36 +1254,18 @@
         <v>4.2220209522254004</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>10.7643108108108</v>
       </c>
       <c r="I28">
-        <v>1.2555000000000001</v>
-      </c>
-      <c r="J28">
-        <v>9.5088108108108091</v>
-      </c>
-      <c r="K28">
-        <v>10.7643108108108</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28">
-        <v>3.8345726891978E-3</v>
-      </c>
-      <c r="N28">
-        <v>2.9041996210182299E-2</v>
-      </c>
-      <c r="O28">
         <v>3.28765688993801E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C29">
         <v>295.98101032471902</v>
@@ -1805,36 +1283,18 @@
         <v>3.28867789249687</v>
       </c>
       <c r="H29">
-        <v>1.86347777777778</v>
+        <v>57.831462885808101</v>
       </c>
       <c r="I29">
-        <v>14.8515213286729</v>
-      </c>
-      <c r="J29">
-        <v>41.116463779357403</v>
-      </c>
-      <c r="K29">
-        <v>57.831462885808101</v>
-      </c>
-      <c r="L29">
-        <v>5.2668515636783804E-3</v>
-      </c>
-      <c r="M29">
-        <v>4.1975686142178302E-2</v>
-      </c>
-      <c r="N29">
-        <v>0.116209763342323</v>
-      </c>
-      <c r="O29">
         <v>0.16345230104818001</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B30" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C30">
         <v>316.26385416666699</v>
@@ -1852,36 +1312,18 @@
         <v>2.8112342592592601</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>57.847499999999997</v>
       </c>
       <c r="I30">
-        <v>29.0075</v>
-      </c>
-      <c r="J30">
-        <v>28.84</v>
-      </c>
-      <c r="K30">
-        <v>57.847499999999997</v>
-      </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
-      <c r="M30">
-        <v>7.7537074662206495E-2</v>
-      </c>
-      <c r="N30">
-        <v>7.7089347005361894E-2</v>
-      </c>
-      <c r="O30">
         <v>0.15462642166756799</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B31" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C31">
         <v>156.66790476190499</v>
@@ -1899,36 +1341,18 @@
         <v>2.3210059964726599</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>47.142642857142803</v>
       </c>
       <c r="I31">
-        <v>25.3608571428571</v>
-      </c>
-      <c r="J31">
-        <v>21.7817857142857</v>
-      </c>
-      <c r="K31">
-        <v>47.142642857142803</v>
-      </c>
-      <c r="L31">
-        <v>0</v>
-      </c>
-      <c r="M31">
-        <v>0.124433487074773</v>
-      </c>
-      <c r="N31">
-        <v>0.106872710802971</v>
-      </c>
-      <c r="O31">
         <v>0.23130619787774401</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B32" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C32">
         <v>1461.6794547618999</v>
@@ -1946,36 +1370,18 @@
         <v>21.6545104409171</v>
       </c>
       <c r="H32">
-        <v>1.2490000000000001</v>
+        <v>39.038222222222203</v>
       </c>
       <c r="I32">
-        <v>17.545999999999999</v>
-      </c>
-      <c r="J32">
-        <v>20.243222222222201</v>
-      </c>
-      <c r="K32">
-        <v>39.038222222222203</v>
-      </c>
-      <c r="L32">
-        <v>8.3226846671788097E-4</v>
-      </c>
-      <c r="M32">
-        <v>1.16917394051497E-2</v>
-      </c>
-      <c r="N32">
-        <v>1.3489027638365301E-2</v>
-      </c>
-      <c r="O32">
         <v>2.6013035510232801E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B33" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C33">
         <v>67.369799999999998</v>
@@ -1993,36 +1399,18 @@
         <v>1.4971066666666699</v>
       </c>
       <c r="H33">
-        <v>1.8</v>
+        <v>5.01</v>
       </c>
       <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33">
-        <v>3.21</v>
-      </c>
-      <c r="K33">
-        <v>5.01</v>
-      </c>
-      <c r="L33">
-        <v>2.4868816990375801E-2</v>
-      </c>
-      <c r="M33">
-        <v>0</v>
-      </c>
-      <c r="N33">
-        <v>4.4349390299503501E-2</v>
-      </c>
-      <c r="O33">
         <v>6.9218207289879194E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B34" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C34">
         <v>189.78</v>
@@ -2040,36 +1428,18 @@
         <v>1.5619753086419801</v>
       </c>
       <c r="H34">
-        <v>0.23300000000000001</v>
+        <v>0.305985956912669</v>
       </c>
       <c r="I34">
-        <v>3.1692206158779303E-2</v>
-      </c>
-      <c r="J34">
-        <v>4.12937507538901E-2</v>
-      </c>
-      <c r="K34">
-        <v>0.305985956912669</v>
-      </c>
-      <c r="L34">
-        <v>1.2257610619060299E-3</v>
-      </c>
-      <c r="M34">
-        <v>1.6672563208296201E-4</v>
-      </c>
-      <c r="N34">
-        <v>2.1723721791489799E-4</v>
-      </c>
-      <c r="O34">
         <v>1.60972391190389E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B35" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="C35">
         <v>49.3662730254444</v>
@@ -2087,42 +1457,24 @@
         <v>1.11789567539503</v>
       </c>
       <c r="H35">
-        <v>0.13700000000000001</v>
+        <v>0.68219738030713595</v>
       </c>
       <c r="I35">
-        <v>0.32228861788617902</v>
-      </c>
-      <c r="J35">
-        <v>0.222908762420958</v>
-      </c>
-      <c r="K35">
-        <v>0.68219738030713595</v>
-      </c>
-      <c r="L35">
-        <v>2.7373463941918201E-3</v>
-      </c>
-      <c r="M35">
-        <v>6.4395298252539904E-3</v>
-      </c>
-      <c r="N35">
-        <v>4.4538576426771401E-3</v>
-      </c>
-      <c r="O35">
         <v>1.3630733862123001E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B36" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C36">
         <v>741.12</v>
       </c>
       <c r="D36">
-        <v>1193.3</v>
+        <v>741.12</v>
       </c>
       <c r="E36">
         <v>723.45</v>
@@ -2131,39 +1483,21 @@
         <v>1.0244246319718</v>
       </c>
       <c r="G36">
-        <v>1.64945746077822</v>
+        <v>1.0244246319718</v>
       </c>
       <c r="H36">
-        <v>5.8140999999999998</v>
+        <v>72.858999999999995</v>
       </c>
       <c r="I36">
-        <v>5.4634</v>
-      </c>
-      <c r="J36">
-        <v>61.581499999999998</v>
-      </c>
-      <c r="K36">
-        <v>72.858999999999995</v>
-      </c>
-      <c r="L36">
-        <v>7.1428132666813198E-3</v>
-      </c>
-      <c r="M36">
-        <v>6.7119667706415E-3</v>
-      </c>
-      <c r="N36">
-        <v>7.5654900187842697E-2</v>
-      </c>
-      <c r="O36">
         <v>8.9509680225165505E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B37" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="C37">
         <v>277.018873076923</v>
@@ -2181,36 +1515,18 @@
         <v>1.9758835454844701</v>
       </c>
       <c r="H37">
-        <v>0.23499999999999999</v>
+        <v>95.173500000000104</v>
       </c>
       <c r="I37">
-        <v>4.3153666666666703</v>
-      </c>
-      <c r="J37">
-        <v>90.623133333333399</v>
-      </c>
-      <c r="K37">
-        <v>95.173500000000104</v>
-      </c>
-      <c r="L37">
-        <v>6.31393916154835E-4</v>
-      </c>
-      <c r="M37">
-        <v>1.15944521672796E-2</v>
-      </c>
-      <c r="N37">
-        <v>0.24348465978534101</v>
-      </c>
-      <c r="O37">
         <v>0.25571050586877597</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B38" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C38">
         <v>195.13499931761899</v>
@@ -2228,36 +1544,18 @@
         <v>1.3847218231451801</v>
       </c>
       <c r="H38">
-        <v>7.5250000000000004</v>
+        <v>37.3329086885565</v>
       </c>
       <c r="I38">
-        <v>19.256596813764201</v>
-      </c>
-      <c r="J38">
-        <v>10.551311874792299</v>
-      </c>
-      <c r="K38">
-        <v>37.3329086885565</v>
-      </c>
-      <c r="L38">
-        <v>3.23700594397748E-2</v>
-      </c>
-      <c r="M38">
-        <v>8.2835506108880505E-2</v>
-      </c>
-      <c r="N38">
-        <v>4.5388251502276301E-2</v>
-      </c>
-      <c r="O38">
         <v>0.16059381705093201</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B39" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C39">
         <v>1046.6809111</v>
@@ -2275,36 +1573,18 @@
         <v>2.0601717569075899</v>
       </c>
       <c r="H39">
-        <v>0.54300000000000104</v>
+        <v>48.366999999999997</v>
       </c>
       <c r="I39">
-        <v>11.324</v>
-      </c>
-      <c r="J39">
-        <v>36.5</v>
-      </c>
-      <c r="K39">
-        <v>48.366999999999997</v>
-      </c>
-      <c r="L39">
-        <v>4.9586871450633203E-4</v>
-      </c>
-      <c r="M39">
-        <v>1.0341100042485601E-2</v>
-      </c>
-      <c r="N39">
-        <v>3.33318749161714E-2</v>
-      </c>
-      <c r="O39">
         <v>4.4168843673163302E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B40" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C40">
         <v>128.91807954545499</v>
@@ -2322,36 +1602,18 @@
         <v>1.3680882055285699</v>
       </c>
       <c r="H40">
-        <v>0.49</v>
+        <v>2.67397507594587</v>
       </c>
       <c r="I40">
-        <v>1.35564174261254</v>
-      </c>
-      <c r="J40">
-        <v>0.82833333333333303</v>
-      </c>
-      <c r="K40">
-        <v>2.67397507594587</v>
-      </c>
-      <c r="L40">
-        <v>3.72362907023349E-3</v>
-      </c>
-      <c r="M40">
-        <v>1.03018510237021E-2</v>
-      </c>
-      <c r="N40">
-        <v>6.2947062853947102E-3</v>
-      </c>
-      <c r="O40">
         <v>2.03201863793303E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B41" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C41">
         <v>188.76</v>
@@ -2369,36 +1631,18 @@
         <v>3.3343932167461601</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>17.468673015873001</v>
       </c>
       <c r="I41">
-        <v>10.327999999999999</v>
-      </c>
-      <c r="J41">
-        <v>6.1406730158730198</v>
-      </c>
-      <c r="K41">
-        <v>17.468673015873001</v>
-      </c>
-      <c r="L41">
-        <v>4.8489862509226902E-3</v>
-      </c>
-      <c r="M41">
-        <v>5.0080329999529501E-2</v>
-      </c>
-      <c r="N41">
-        <v>2.9776039025380199E-2</v>
-      </c>
-      <c r="O41">
         <v>8.4705355275832506E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B42" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C42">
         <v>688.76</v>
@@ -2416,42 +1660,24 @@
         <v>5.0058651861342396</v>
       </c>
       <c r="H42">
-        <v>2.5185200000000001</v>
+        <v>87.269336890499702</v>
       </c>
       <c r="I42">
-        <v>16.070696890499701</v>
-      </c>
-      <c r="J42">
-        <v>68.680120000000002</v>
-      </c>
-      <c r="K42">
-        <v>87.269336890499702</v>
-      </c>
-      <c r="L42">
-        <v>3.2453927709634699E-3</v>
-      </c>
-      <c r="M42">
-        <v>2.0708878036613899E-2</v>
-      </c>
-      <c r="N42">
-        <v>8.8501963437615502E-2</v>
-      </c>
-      <c r="O42">
         <v>0.11245623424519301</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B43" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C43">
         <v>676.40754289999995</v>
       </c>
       <c r="D43">
-        <v>1728.9854</v>
+        <v>679.88754289999997</v>
       </c>
       <c r="E43">
         <v>179.01</v>
@@ -2460,39 +1686,21 @@
         <v>3.7786019937433699</v>
       </c>
       <c r="G43">
-        <v>9.6585967264398604</v>
+        <v>3.7980422484777399</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>17.548860000000001</v>
       </c>
       <c r="I43">
-        <v>1.4453400000000001</v>
-      </c>
-      <c r="J43">
-        <v>16.10352</v>
-      </c>
-      <c r="K43">
-        <v>17.548860000000001</v>
-      </c>
-      <c r="L43">
-        <v>0</v>
-      </c>
-      <c r="M43">
-        <v>2.0827533170095598E-3</v>
-      </c>
-      <c r="N43">
-        <v>2.3205377070813701E-2</v>
-      </c>
-      <c r="O43">
         <v>2.52881303878232E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B44" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -2510,36 +1718,18 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>96.206000000000003</v>
       </c>
       <c r="I44">
-        <v>0</v>
-      </c>
-      <c r="J44">
-        <v>96.206000000000003</v>
-      </c>
-      <c r="K44">
-        <v>96.206000000000003</v>
-      </c>
-      <c r="L44">
-        <v>0</v>
-      </c>
-      <c r="M44">
-        <v>0</v>
-      </c>
-      <c r="N44">
         <v>1</v>
       </c>
-      <c r="O44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B45" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C45">
         <v>418.08693098666703</v>
@@ -2557,36 +1747,18 @@
         <v>2.9494668852674901</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>110.378</v>
       </c>
       <c r="I45">
-        <v>33.143000000000001</v>
-      </c>
-      <c r="J45">
-        <v>77.234999999999999</v>
-      </c>
-      <c r="K45">
-        <v>110.378</v>
-      </c>
-      <c r="L45">
-        <v>0</v>
-      </c>
-      <c r="M45">
-        <v>6.27156090341143E-2</v>
-      </c>
-      <c r="N45">
-        <v>0.14614971679539601</v>
-      </c>
-      <c r="O45">
         <v>0.20886532582951101</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B46" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C46">
         <v>138.09444999999999</v>
@@ -2604,36 +1776,18 @@
         <v>1.39489343434343</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>113.77347666666699</v>
       </c>
       <c r="I46">
-        <v>30.590596666666698</v>
-      </c>
-      <c r="J46">
-        <v>83.182879999999997</v>
-      </c>
-      <c r="K46">
-        <v>113.77347666666699</v>
-      </c>
-      <c r="L46">
-        <v>0</v>
-      </c>
-      <c r="M46">
-        <v>0.121454911196977</v>
-      </c>
-      <c r="N46">
-        <v>0.33026388512773203</v>
-      </c>
-      <c r="O46">
         <v>0.45171879632470902</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B47" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C47">
         <v>622.64183333333301</v>
@@ -2651,36 +1805,18 @@
         <v>8.3352320392681793</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1.5706317443687801</v>
       </c>
       <c r="I47">
-        <v>0</v>
-      </c>
-      <c r="J47">
-        <v>1.5706317443687801</v>
-      </c>
-      <c r="K47">
-        <v>1.5706317443687801</v>
-      </c>
-      <c r="L47">
-        <v>0</v>
-      </c>
-      <c r="M47">
-        <v>0</v>
-      </c>
-      <c r="N47">
         <v>2.5161813200466399E-3</v>
       </c>
-      <c r="O47">
-        <v>2.5161813200466399E-3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B48" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C48">
         <v>536.95500000000004</v>
@@ -2698,36 +1834,18 @@
         <v>3.1226820577243699</v>
       </c>
       <c r="H48">
-        <v>1.5649</v>
+        <v>47.126255357142902</v>
       </c>
       <c r="I48">
-        <v>0</v>
-      </c>
-      <c r="J48">
-        <v>45.561355357142901</v>
-      </c>
-      <c r="K48">
-        <v>47.126255357142902</v>
-      </c>
-      <c r="L48">
-        <v>2.6792505077793101E-3</v>
-      </c>
-      <c r="M48">
-        <v>0</v>
-      </c>
-      <c r="N48">
-        <v>7.8005166129298101E-2</v>
-      </c>
-      <c r="O48">
         <v>8.06844166370774E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B49" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C49">
         <v>626.95845304568502</v>
@@ -2745,36 +1863,18 @@
         <v>0.49947894046540298</v>
       </c>
       <c r="H49">
-        <v>2.5698461538461501</v>
+        <v>11.034981519129801</v>
       </c>
       <c r="I49">
-        <v>2.9610199806682602</v>
-      </c>
-      <c r="J49">
-        <v>5.5041153846153801</v>
-      </c>
-      <c r="K49">
-        <v>11.034981519129801</v>
-      </c>
-      <c r="L49">
-        <v>4.0280134788519897E-3</v>
-      </c>
-      <c r="M49">
-        <v>4.6411449087842404E-3</v>
-      </c>
-      <c r="N49">
-        <v>8.6272288810774703E-3</v>
-      </c>
-      <c r="O49">
         <v>1.72963872687137E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B50" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C50">
         <v>418.36972954003602</v>
@@ -2792,36 +1892,18 @@
         <v>2.04656832354181</v>
       </c>
       <c r="H50">
-        <v>10.0355684029426</v>
+        <v>14.842498215602999</v>
       </c>
       <c r="I50">
-        <v>3.22682860699706</v>
-      </c>
-      <c r="J50">
-        <v>1.5801012056633501</v>
-      </c>
-      <c r="K50">
-        <v>14.842498215602999</v>
-      </c>
-      <c r="L50">
-        <v>2.31654781651346E-2</v>
-      </c>
-      <c r="M50">
-        <v>7.44860925028463E-3</v>
-      </c>
-      <c r="N50">
-        <v>3.6474067545356498E-3</v>
-      </c>
-      <c r="O50">
         <v>3.4261494169954901E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B51" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="C51">
         <v>1282.12311688312</v>
@@ -2839,36 +1921,18 @@
         <v>1.16477230695718</v>
       </c>
       <c r="H51">
-        <v>5.4368581931180797</v>
+        <v>78.257616723575595</v>
       </c>
       <c r="I51">
-        <v>17.315575126088898</v>
-      </c>
-      <c r="J51">
-        <v>55.505183404368601</v>
-      </c>
-      <c r="K51">
-        <v>78.257616723575595</v>
-      </c>
-      <c r="L51">
-        <v>3.99657100310711E-3</v>
-      </c>
-      <c r="M51">
-        <v>1.27284771816646E-2</v>
-      </c>
-      <c r="N51">
-        <v>4.0801212508509398E-2</v>
-      </c>
-      <c r="O51">
         <v>5.7526260693281102E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B52" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C52">
         <v>7429.0021666666698</v>
@@ -2886,36 +1950,18 @@
         <v>1.7899053527687401</v>
       </c>
       <c r="H52">
-        <v>161.58956487276399</v>
+        <v>223.82756576591899</v>
       </c>
       <c r="I52">
-        <v>29.1231344638834</v>
-      </c>
-      <c r="J52">
-        <v>33.114866429271302</v>
-      </c>
-      <c r="K52">
-        <v>223.82756576591899</v>
-      </c>
-      <c r="L52">
-        <v>2.1115008503057298E-2</v>
-      </c>
-      <c r="M52">
-        <v>3.80553801431907E-3</v>
-      </c>
-      <c r="N52">
-        <v>4.3271401020371497E-3</v>
-      </c>
-      <c r="O52">
         <v>2.9247686619413502E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B53" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="C53">
         <v>2173.40108333333</v>
@@ -2933,36 +1979,18 @@
         <v>3.8658874170222801</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>244.85264069843299</v>
       </c>
       <c r="I53">
-        <v>63.214603781367501</v>
-      </c>
-      <c r="J53">
-        <v>181.63803691706499</v>
-      </c>
-      <c r="K53">
-        <v>244.85264069843299</v>
-      </c>
-      <c r="L53">
-        <v>0</v>
-      </c>
-      <c r="M53">
-        <v>2.6140600199707199E-2</v>
-      </c>
-      <c r="N53">
-        <v>7.5111240442642405E-2</v>
-      </c>
-      <c r="O53">
         <v>0.10125184064235</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B54" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C54">
         <v>2306.51578598485</v>
@@ -2980,36 +2008,18 @@
         <v>2.9688708791155198</v>
       </c>
       <c r="H54">
-        <v>4.5599999999999996</v>
+        <v>783.56961886002603</v>
       </c>
       <c r="I54">
-        <v>234.557878843922</v>
-      </c>
-      <c r="J54">
-        <v>544.45174001610405</v>
-      </c>
-      <c r="K54">
-        <v>783.56961886002603</v>
-      </c>
-      <c r="L54">
-        <v>1.4756873686567001E-3</v>
-      </c>
-      <c r="M54">
-        <v>7.5906600664228996E-2</v>
-      </c>
-      <c r="N54">
-        <v>0.17619310429494001</v>
-      </c>
-      <c r="O54">
         <v>0.253575392327825</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B55" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C55">
         <v>5828</v>
@@ -3027,36 +2037,18 @@
         <v>2.46114864864865</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>31.3833333333334</v>
       </c>
       <c r="I55">
-        <v>0</v>
-      </c>
-      <c r="J55">
-        <v>31.3833333333334</v>
-      </c>
-      <c r="K55">
-        <v>31.3833333333334</v>
-      </c>
-      <c r="L55">
-        <v>0</v>
-      </c>
-      <c r="M55">
-        <v>0</v>
-      </c>
-      <c r="N55">
         <v>5.35608127135108E-3</v>
       </c>
-      <c r="O55">
-        <v>5.35608127135108E-3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B56" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C56">
         <v>2336.3607333333298</v>
@@ -3074,36 +2066,18 @@
         <v>1.6572079445174099</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>161.62743333333299</v>
       </c>
       <c r="I56">
-        <v>19.4209</v>
-      </c>
-      <c r="J56">
-        <v>142.206533333333</v>
-      </c>
-      <c r="K56">
-        <v>161.62743333333299</v>
-      </c>
-      <c r="L56">
-        <v>0</v>
-      </c>
-      <c r="M56">
-        <v>7.7746164930458401E-3</v>
-      </c>
-      <c r="N56">
-        <v>5.6928425534975499E-2</v>
-      </c>
-      <c r="O56">
         <v>6.4703042028021407E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B57" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C57">
         <v>1981.8164057971001</v>
@@ -3121,36 +2095,18 @@
         <v>10.502471678839999</v>
       </c>
       <c r="H57">
-        <v>73.183556389916902</v>
+        <v>523.62356151156496</v>
       </c>
       <c r="I57">
-        <v>62.113288668192901</v>
-      </c>
-      <c r="J57">
-        <v>388.32671645345602</v>
-      </c>
-      <c r="K57">
-        <v>523.62356151156496</v>
-      </c>
-      <c r="L57">
-        <v>2.92098622776144E-2</v>
-      </c>
-      <c r="M57">
-        <v>2.4791369770840999E-2</v>
-      </c>
-      <c r="N57">
-        <v>0.15499342291988499</v>
-      </c>
-      <c r="O57">
         <v>0.20899465496834099</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B58" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C58">
         <v>7027.4987799999999</v>
@@ -3168,36 +2124,18 @@
         <v>3.5934597290938002</v>
       </c>
       <c r="H58">
-        <v>30.367116242451999</v>
+        <v>198.43867576528501</v>
       </c>
       <c r="I58">
-        <v>26.483280924972401</v>
-      </c>
-      <c r="J58">
-        <v>141.58827859786101</v>
-      </c>
-      <c r="K58">
-        <v>198.43867576528501</v>
-      </c>
-      <c r="L58">
-        <v>4.2025157882072898E-3</v>
-      </c>
-      <c r="M58">
-        <v>3.6650304665787701E-3</v>
-      </c>
-      <c r="N58">
-        <v>1.95944511649341E-2</v>
-      </c>
-      <c r="O58">
         <v>2.7461997419720101E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B59" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C59">
         <v>3307.8619001721499</v>
@@ -3215,36 +2153,18 @@
         <v>5.25892193986033</v>
       </c>
       <c r="H59">
-        <v>4.234</v>
+        <v>52.240657863033</v>
       </c>
       <c r="I59">
-        <v>32.351530521040303</v>
-      </c>
-      <c r="J59">
-        <v>15.655127341992699</v>
-      </c>
-      <c r="K59">
-        <v>52.240657863033</v>
-      </c>
-      <c r="L59">
-        <v>1.2600805858961101E-3</v>
-      </c>
-      <c r="M59">
-        <v>9.6281378208758692E-3</v>
-      </c>
-      <c r="N59">
-        <v>4.6591218784545101E-3</v>
-      </c>
-      <c r="O59">
         <v>1.55473402852265E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B60" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C60">
         <v>3069.45708333333</v>
@@ -3262,36 +2182,18 @@
         <v>10.5843347701149</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>97.400643000540597</v>
       </c>
       <c r="I60">
-        <v>0</v>
-      </c>
-      <c r="J60">
-        <v>97.400643000540597</v>
-      </c>
-      <c r="K60">
-        <v>97.400643000540597</v>
-      </c>
-      <c r="L60">
-        <v>0</v>
-      </c>
-      <c r="M60">
-        <v>0</v>
-      </c>
-      <c r="N60">
         <v>3.07562421231019E-2</v>
       </c>
-      <c r="O60">
-        <v>3.07562421231019E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B61" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C61">
         <v>2238.08023809524</v>
@@ -3309,36 +2211,18 @@
         <v>4.5501685948744797</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>767.03806666666696</v>
       </c>
       <c r="I61">
-        <v>7.9020666666666699</v>
-      </c>
-      <c r="J61">
-        <v>759.13599999999997</v>
-      </c>
-      <c r="K61">
-        <v>767.03806666666696</v>
-      </c>
-      <c r="L61">
-        <v>0</v>
-      </c>
-      <c r="M61">
-        <v>2.6295359667355099E-3</v>
-      </c>
-      <c r="N61">
-        <v>0.25261434759392798</v>
-      </c>
-      <c r="O61">
         <v>0.25524388356066402</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B62" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C62">
         <v>910.00293750000003</v>
@@ -3356,36 +2240,18 @@
         <v>1.9289940381558</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>255.99255714285701</v>
       </c>
       <c r="I62">
-        <v>71.832314285714304</v>
-      </c>
-      <c r="J62">
-        <v>184.160242857143</v>
-      </c>
-      <c r="K62">
-        <v>255.99255714285701</v>
-      </c>
-      <c r="L62">
-        <v>0</v>
-      </c>
-      <c r="M62">
-        <v>6.1605996434588702E-2</v>
-      </c>
-      <c r="N62">
-        <v>0.15794249952359499</v>
-      </c>
-      <c r="O62">
         <v>0.21954849595818299</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B63" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C63">
         <v>2090.2536666666701</v>
@@ -3403,36 +2269,18 @@
         <v>4.2797986622986599</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>18.866041779735301</v>
       </c>
       <c r="I63">
-        <v>1.83218604651163</v>
-      </c>
-      <c r="J63">
-        <v>17.0338557332236</v>
-      </c>
-      <c r="K63">
-        <v>18.866041779735301</v>
-      </c>
-      <c r="L63">
-        <v>0</v>
-      </c>
-      <c r="M63">
-        <v>8.6869703942088396E-4</v>
-      </c>
-      <c r="N63">
-        <v>8.0762868342693205E-3</v>
-      </c>
-      <c r="O63">
         <v>8.9449838736902106E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B64" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C64">
         <v>109.654</v>
@@ -3450,27 +2298,9 @@
         <v>0.348661367249603</v>
       </c>
       <c r="H64">
-        <v>8.6327999999999996</v>
+        <v>14.155466666666699</v>
       </c>
       <c r="I64">
-        <v>2.9066666666666698</v>
-      </c>
-      <c r="J64">
-        <v>2.6160000000000001</v>
-      </c>
-      <c r="K64">
-        <v>14.155466666666699</v>
-      </c>
-      <c r="L64">
-        <v>6.9726493719920193E-2</v>
-      </c>
-      <c r="M64">
-        <v>2.3476933912431101E-2</v>
-      </c>
-      <c r="N64">
-        <v>2.1129240521187899E-2</v>
-      </c>
-      <c r="O64">
         <v>0.114332668153539</v>
       </c>
     </row>
